--- a/hardware/leadtech-arduino-CSPG_concept-bom.xlsx
+++ b/hardware/leadtech-arduino-CSPG_concept-bom.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\trosh\git\Leadtech-arduino-CSPG\hardware\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="leadtech_arduino_CSPG_concept_bom" localSheetId="0">Sheet1!$A$1:$N$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -52,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="236">
   <si>
     <t>Qty</t>
   </si>
@@ -138,9 +133,6 @@
     <t>RESISTOR, European symbol</t>
   </si>
   <si>
-    <t>100uF</t>
-  </si>
-  <si>
     <t>CAPACITOR_POL-CASE_B</t>
   </si>
   <si>
@@ -168,9 +160,6 @@
     <t>C-EUC0805</t>
   </si>
   <si>
-    <t>C0805</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -216,9 +205,6 @@
     <t>CAPACITOR_NPOL-0805</t>
   </si>
   <si>
-    <t>C805</t>
-  </si>
-  <si>
     <t>C14, C15</t>
   </si>
   <si>
@@ -499,16 +485,286 @@
   </si>
   <si>
     <t>C375701</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0603C104J5RAC</t>
+  </si>
+  <si>
+    <t>C490602</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>C309441</t>
+  </si>
+  <si>
+    <t>AC0603JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C76614</t>
+  </si>
+  <si>
+    <t>C1608X5R1E106MT000E</t>
+  </si>
+  <si>
+    <t>CASE_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANASONIC </t>
+  </si>
+  <si>
+    <t>EEEFK1C101SR</t>
+  </si>
+  <si>
+    <t>100uF 16V</t>
+  </si>
+  <si>
+    <t>C336761</t>
+  </si>
+  <si>
+    <t>C178278</t>
+  </si>
+  <si>
+    <t>EMZA160ADA100MD61G</t>
+  </si>
+  <si>
+    <t>NCC(Nippon Chemi-Con)</t>
+  </si>
+  <si>
+    <t>ROHM Semicon</t>
+  </si>
+  <si>
+    <t>MCR03EZPFX1501</t>
+  </si>
+  <si>
+    <t>C161984</t>
+  </si>
+  <si>
+    <t>AC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>C125923</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>ERJ3EKF1002V</t>
+  </si>
+  <si>
+    <t>C191124</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ102</t>
+  </si>
+  <si>
+    <t>C253329</t>
+  </si>
+  <si>
+    <t>C137753</t>
+  </si>
+  <si>
+    <t>RC0603FR-0727RL</t>
+  </si>
+  <si>
+    <t>C253420</t>
+  </si>
+  <si>
+    <t>MCR03EZPJ331</t>
+  </si>
+  <si>
+    <t>MMZ2012S800AT</t>
+  </si>
+  <si>
+    <t>C107330</t>
+  </si>
+  <si>
+    <t>Hosonic Elec</t>
+  </si>
+  <si>
+    <t>C114981</t>
+  </si>
+  <si>
+    <t>E49A16E00000KE10CO</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>1N4004G</t>
+  </si>
+  <si>
+    <t>C232435</t>
+  </si>
+  <si>
+    <t>400V 1A 1.1V @ 1A Axial Diodes - General Purpose RoHS</t>
+  </si>
+  <si>
+    <t>C59729</t>
+  </si>
+  <si>
+    <t>KF2510 Header Male Pin 0.100"(2.54mm) 4 DIP,P=2.54mm Wire To Board / Wire To Wire Connector RoHS</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>HEF4050BT,653</t>
+  </si>
+  <si>
+    <t>C118326</t>
+  </si>
+  <si>
+    <t>Microchip Tech</t>
+  </si>
+  <si>
+    <t>C39168</t>
+  </si>
+  <si>
+    <t>ATMEGA1281-16AU</t>
+  </si>
+  <si>
+    <t>8-Bit FLASH AVR 16MHz 2.7V ~ 5.5V TQFP-64_14x14x08P ATMEL &amp; AVR RoHS</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>AP7361-33E-13</t>
+  </si>
+  <si>
+    <t>C150719</t>
+  </si>
+  <si>
+    <t>Fixed 6V 3.3V 1A SOT-223 Low Dropout Regulators(LDO) RoHS</t>
+  </si>
+  <si>
+    <t>C108492</t>
+  </si>
+  <si>
+    <t>Fixed 15V 3.3V 800mA SOT-223 Linear Voltage Regulators RoHS</t>
+  </si>
+  <si>
+    <t>Ckmtw(Shenzhen Cankemeng)</t>
+  </si>
+  <si>
+    <t>C124416</t>
+  </si>
+  <si>
+    <t>Female Header Female Socket 0.100"(2.54mm) 8 1 Through Hole,P=2.54mm Pin Header &amp; Female Header RoHS</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>HX(Zhejiang Yueqing Hongxing Elec)</t>
+  </si>
+  <si>
+    <t>C185087</t>
+  </si>
+  <si>
+    <t>5569 Header Male Pin 0.118"(3.00mm) 2 Through Hole Wire To Board / Wire To Wire Connector RoHS</t>
+  </si>
+  <si>
+    <t>Q&amp;J</t>
+  </si>
+  <si>
+    <t>C70377</t>
+  </si>
+  <si>
+    <t>SMD Battery Holders, Clips &amp; Contacts RoHS</t>
+  </si>
+  <si>
+    <t>Maxim Integrated</t>
+  </si>
+  <si>
+    <t>DS1302Z+T&amp;R</t>
+  </si>
+  <si>
+    <t>C8959</t>
+  </si>
+  <si>
+    <t>Clock/Calendar 31B HH:MM:SS (12/24 hr) YY-MM-DD-dd 3-Wire Serial SOIC-8_150mil Real-time Clocks RoHS</t>
+  </si>
+  <si>
+    <t>Seiko Epson</t>
+  </si>
+  <si>
+    <t>Q11C02RX1001300</t>
+  </si>
+  <si>
+    <t>C255873</t>
+  </si>
+  <si>
+    <t>32.768KHz ±20ppm 6pF 35 KOhm(Max) Radial,2x6mm Radial Cylinder Crystals RoHS</t>
+  </si>
+  <si>
+    <t>Jiangsu Huaneng Elec</t>
+  </si>
+  <si>
+    <t>TMB12A05</t>
+  </si>
+  <si>
+    <t>C96093</t>
+  </si>
+  <si>
+    <t>Magnetic YES 2300±400Hz 85dB @ 5V, 10cm 5V Φ12mm Through Hole 7.62 Buzzers RoHS</t>
+  </si>
+  <si>
+    <t>PL2303TA</t>
+  </si>
+  <si>
+    <t>Prolific Tech</t>
+  </si>
+  <si>
+    <t>C8691</t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R2, R3 alternate</t>
+  </si>
+  <si>
+    <t>Walsin Tech Corp</t>
+  </si>
+  <si>
+    <t>WR06X000PTL</t>
+  </si>
+  <si>
+    <t>C132607</t>
+  </si>
+  <si>
+    <t>Chip Resistor - Surface Mount 0Ohms ±5% 1/10W 0603 RoHS</t>
+  </si>
+  <si>
+    <t>C310413</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>L7805CDT-TR</t>
+  </si>
+  <si>
+    <t>Fixed 35V 5V 1.5A TO-252-3 Linear Voltage Regulators RoH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,12 +773,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -537,9 +799,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +903,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,38 +1080,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,19 +1131,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
         <v>139</v>
       </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -896,19 +1160,19 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
         <v>140</v>
-      </c>
-      <c r="I2" t="s">
-        <v>143</v>
       </c>
       <c r="J2" s="1">
         <v>1.4274E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -925,19 +1189,19 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J3" s="1">
         <v>3.1213000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>10</v>
       </c>
@@ -956,8 +1220,20 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9.2750000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1</v>
       </c>
@@ -973,8 +1249,20 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.228E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1</v>
       </c>
@@ -993,33 +1281,54 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.202E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.171212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1028,18 +1337,30 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7.8580000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1048,75 +1369,123 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7.8580000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5.7504E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.4415000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.111524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1125,72 +1494,126 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.4148000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.9183999999999997E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.6323000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.8269000000000001E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1199,32 +1622,59 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.7880000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.114496</v>
+      </c>
+      <c r="K18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1233,364 +1683,587 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4.0679999999999996E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.18030299999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.8686999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
         <v>76</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7.3939389999999996</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.1168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" t="s">
+        <v>202</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" s="1">
+        <v>9.7434999999999994E-2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>90</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6.744E-2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J27" s="1">
         <v>6.4289999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
         <v>100</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
+        <v>209</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.13638400000000001</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>101</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
         <v>102</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>104</v>
       </c>
-      <c r="C29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.55454499999999995</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>105</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
         <v>106</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>108</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>109</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="G31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.17448</v>
+      </c>
+      <c r="K31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>111</v>
       </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>114</v>
       </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
         <v>115</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
         <v>117</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>118</v>
       </c>
-      <c r="D33" t="s">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
         <v>119</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D34" t="s">
         <v>120</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E34" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>122</v>
       </c>
-      <c r="C34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.3121210000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>123</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
         <v>124</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.126697</v>
+      </c>
+      <c r="K35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>126</v>
       </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
         <v>127</v>
       </c>
-      <c r="F35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
         <v>128</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>129</v>
       </c>
-      <c r="D36" t="s">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E37" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="F37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" t="s">
-        <v>136</v>
+      <c r="G37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.21363599999999999</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.395E-3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/leadtech-arduino-CSPG_concept-bom.xlsx
+++ b/hardware/leadtech-arduino-CSPG_concept-bom.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\trosh\git\Leadtech-arduino-CSPG\hardware\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -10,11 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="leadtech_arduino_CSPG_concept_bom" localSheetId="0">Sheet1!$A$1:$N$37</definedName>
+    <definedName name="leadtech_arduino_CSPG_concept_bom" localSheetId="0">Sheet1!$A$1:$N$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
   <si>
     <t>Qty</t>
   </si>
@@ -106,18 +111,12 @@
     <t>CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>1.5K</t>
-  </si>
-  <si>
     <t>RESISTOR-0603</t>
   </si>
   <si>
     <t>R603</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>100R</t>
   </si>
   <si>
@@ -148,12 +147,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R11, R12, R13, R14</t>
-  </si>
-  <si>
-    <t>R5, R6, R9, R10, R15, R17, R18, R19, R20</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -223,12 +216,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>R2, R3</t>
-  </si>
-  <si>
     <t>32.768khz</t>
   </si>
   <si>
@@ -391,12 +378,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>OP-AMP</t>
-  </si>
-  <si>
-    <t>OPAMP-DUALU</t>
-  </si>
-  <si>
     <t>SO08</t>
   </si>
   <si>
@@ -406,9 +387,6 @@
     <t>Generic op-amp footprint</t>
   </si>
   <si>
-    <t>PL2303HX</t>
-  </si>
-  <si>
     <t>SSOP-28</t>
   </si>
   <si>
@@ -424,15 +402,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>USB-F-MINI-B</t>
-  </si>
-  <si>
-    <t>CON-USB-F-MINI-B</t>
-  </si>
-  <si>
-    <t>CONN_USB_MINI-B</t>
-  </si>
-  <si>
     <t>USB1</t>
   </si>
   <si>
@@ -541,12 +510,6 @@
     <t>ROHM Semicon</t>
   </si>
   <si>
-    <t>MCR03EZPFX1501</t>
-  </si>
-  <si>
-    <t>C161984</t>
-  </si>
-  <si>
     <t>AC0603FR-07100RL</t>
   </si>
   <si>
@@ -568,18 +531,6 @@
     <t>C253329</t>
   </si>
   <si>
-    <t>C137753</t>
-  </si>
-  <si>
-    <t>RC0603FR-0727RL</t>
-  </si>
-  <si>
-    <t>C253420</t>
-  </si>
-  <si>
-    <t>MCR03EZPJ331</t>
-  </si>
-  <si>
     <t>MMZ2012S800AT</t>
   </si>
   <si>
@@ -727,24 +678,9 @@
     <t>C8691</t>
   </si>
   <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>R2, R3 alternate</t>
-  </si>
-  <si>
     <t>Walsin Tech Corp</t>
   </si>
   <si>
-    <t>WR06X000PTL</t>
-  </si>
-  <si>
-    <t>C132607</t>
-  </si>
-  <si>
-    <t>Chip Resistor - Surface Mount 0Ohms ±5% 1/10W 0603 RoHS</t>
-  </si>
-  <si>
     <t>C310413</t>
   </si>
   <si>
@@ -755,17 +691,71 @@
   </si>
   <si>
     <t>Fixed 35V 5V 1.5A TO-252-3 Linear Voltage Regulators RoH</t>
+  </si>
+  <si>
+    <t>Trusignal Microelec</t>
+  </si>
+  <si>
+    <t>TSV358</t>
+  </si>
+  <si>
+    <t>C383852</t>
+  </si>
+  <si>
+    <t>SO-8 General Purpose Amplifiers RoHS</t>
+  </si>
+  <si>
+    <t>USB micro</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>47589-0001</t>
+  </si>
+  <si>
+    <t>C114094</t>
+  </si>
+  <si>
+    <t>Desciption</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Multiple of 10</t>
+  </si>
+  <si>
+    <t>WR06X331 JTL</t>
+  </si>
+  <si>
+    <t>C384242</t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14, R5, R6, R9, R10, R15, R17, R18, R19, R20</t>
+  </si>
+  <si>
+    <t>LM358</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -782,7 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,11 +789,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,21 +1074,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1111,7 +1105,7 @@
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1131,19 +1125,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1159,20 +1162,24 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>135</v>
+      <c r="G2" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J2" s="1">
         <v>1.4274E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="2">
+        <f>A2*J2</f>
+        <v>1.4274E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1188,20 +1195,24 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>145</v>
+      <c r="G3" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J3" s="1">
         <v>3.1213000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L34" si="0">A3*J3</f>
+        <v>3.1213000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1220,171 +1231,201 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>148</v>
+      <c r="G4" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J4" s="1">
         <v>9.2750000000000003E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.202E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.202E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.171212</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51363599999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5.228E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4.202E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
         <v>155</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.8580000000000004E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10215400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.171212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.7504E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7504E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7.8580000000000004E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
-        <v>170</v>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="J9" s="1">
-        <v>7.8580000000000004E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>4.4415000000000003E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8830000000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1395,875 +1436,881 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>153</v>
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="J10" s="1">
-        <v>5.7504E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.111524</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.111524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>160</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J11" s="1">
-        <v>4.4415000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1.4148000000000001E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8296000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>180</v>
+        <v>45</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1">
-        <v>0.111524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>3.9183999999999997E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9183999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.6323000000000001E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2646000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.8269000000000001E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8269000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.114496</v>
+      </c>
+      <c r="K15" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.114496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" t="s">
+        <v>224</v>
+      </c>
+      <c r="I16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.7930000000000001E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7930000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H17" t="s">
         <v>171</v>
       </c>
-      <c r="I13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.4148000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.18030299999999999</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18030299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.8686999999999999E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7373999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.3939389999999996</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3939389999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.1168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" t="s">
         <v>183</v>
       </c>
-      <c r="I14" t="s">
-        <v>182</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3.9183999999999997E-2</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J22" s="1">
+        <v>9.7434999999999994E-2</v>
+      </c>
+      <c r="K22" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7434999999999994E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6.744E-2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>6.744E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6.4289999999999998E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4289999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.13638400000000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13638400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.55454499999999995</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55454499999999995</v>
+      </c>
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.6323000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.8269000000000001E-2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2.7880000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.17448</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.10634299999999999</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10634299999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.3121210000000001</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3121210000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.126697</v>
+      </c>
+      <c r="K32" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.126697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>217</v>
       </c>
-      <c r="H18" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.114496</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4.0679999999999996E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.18030299999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" t="s">
-        <v>177</v>
-      </c>
-      <c r="I21" t="s">
-        <v>152</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.8686999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" t="s">
-        <v>192</v>
-      </c>
-      <c r="H22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" t="s">
-        <v>191</v>
-      </c>
-      <c r="J22" s="1">
-        <v>7.3939389999999996</v>
-      </c>
-      <c r="K22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s">
-        <v>195</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.1168</v>
-      </c>
-      <c r="K23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" s="1">
-        <v>9.7434999999999994E-2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="1">
-        <v>6.744E-2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27" s="1">
-        <v>6.4289999999999998E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="J33" s="1">
+        <v>0.36060599999999998</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36060599999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.13638400000000001</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H34" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="J34" s="4">
+        <v>0.21363599999999999</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I29" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.55454499999999995</v>
-      </c>
-      <c r="K29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" t="s">
-        <v>221</v>
-      </c>
-      <c r="H31" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" t="s">
-        <v>219</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.17448</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21363599999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" t="s">
-        <v>225</v>
-      </c>
-      <c r="H34" t="s">
-        <v>223</v>
-      </c>
-      <c r="I34" t="s">
-        <v>224</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1.3121210000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" t="s">
-        <v>195</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.126697</v>
-      </c>
-      <c r="K35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" t="s">
-        <v>129</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0.21363599999999999</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" t="s">
-        <v>230</v>
-      </c>
-      <c r="H38" t="s">
-        <v>229</v>
-      </c>
-      <c r="I38" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1.395E-3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>231</v>
+      <c r="L36" s="2">
+        <f>SUM(L2:L34)</f>
+        <v>12.135303</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/leadtech-arduino-CSPG_concept-bom.xlsx
+++ b/hardware/leadtech-arduino-CSPG_concept-bom.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\trosh\git\Leadtech-arduino-CSPG\hardware\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="leadtech_arduino_CSPG_concept_bom" localSheetId="0">Sheet1!$A$1:$N$34</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -52,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="238">
   <si>
     <t>Qty</t>
   </si>
@@ -736,17 +731,47 @@
   </si>
   <si>
     <t>LM358</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>C29275</t>
+  </si>
+  <si>
+    <t>KF2510 Header Male Pin 0.100"(2.54mm) 3 3P Wire To Board / Wire To Wire Connector RoHS</t>
+  </si>
+  <si>
+    <t>not added to cart</t>
+  </si>
+  <si>
+    <t>F1206</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>SOCAY</t>
+  </si>
+  <si>
+    <t>SCF075-1206R</t>
+  </si>
+  <si>
+    <t>C183290</t>
+  </si>
+  <si>
+    <t>8V 1.5A SMD1206 PTC Resettable Fuses RoHS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -798,6 +829,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,21 +1108,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:K30"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1105,7 +1139,7 @@
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1179,7 +1213,7 @@
         <v>1.4274E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1208,11 +1242,11 @@
         <v>3.1213000000000001E-2</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L34" si="0">A3*J3</f>
+        <f t="shared" ref="L3:L36" si="0">A3*J3</f>
         <v>3.1213000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1248,7 +1282,7 @@
         <v>9.2749999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1284,7 +1318,7 @@
         <v>4.202E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1317,7 +1351,7 @@
         <v>0.51363599999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1353,7 +1387,7 @@
         <v>0.10215400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1389,7 +1423,7 @@
         <v>5.7504E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1425,7 +1459,7 @@
         <v>8.8830000000000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1461,7 +1495,7 @@
         <v>0.111524</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1494,7 +1528,7 @@
         <v>2.8296000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1533,7 +1567,7 @@
         <v>3.9183999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1569,7 +1603,7 @@
         <v>3.2646000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1605,7 +1639,7 @@
         <v>1.8269000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1641,7 +1675,7 @@
         <v>0.114496</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1674,7 +1708,7 @@
         <v>1.7930000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1710,7 +1744,7 @@
         <v>0.18030299999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1746,7 +1780,7 @@
         <v>3.7373999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1782,7 +1816,7 @@
         <v>7.3939389999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1821,7 +1855,7 @@
         <v>0.1168</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1846,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1882,7 +1916,7 @@
         <v>9.7434999999999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1921,7 +1955,7 @@
         <v>6.744E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1957,7 +1991,7 @@
         <v>6.4289999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1993,7 +2027,7 @@
         <v>0.13638400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2031,11 +2065,11 @@
         <f t="shared" si="0"/>
         <v>0.55454499999999995</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2060,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2099,7 +2133,7 @@
         <v>0.17448</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2121,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2160,7 +2194,7 @@
         <v>0.10634299999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2196,7 +2230,7 @@
         <v>1.3121210000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2235,7 +2269,7 @@
         <v>0.126697</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2265,7 +2299,7 @@
         <v>0.36060599999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -2304,13 +2338,73 @@
         <v>0.21363599999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="6" t="s">
+    <row r="35" spans="1:13" s="8" customFormat="1">
+      <c r="A35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="9">
+        <v>8.8769999999999995E-3</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="0"/>
+        <v>8.8769999999999995E-3</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1">
+      <c r="A36" s="8">
+        <v>1</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J36" s="9">
+        <v>5.4459E-2</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="0"/>
+        <v>5.4459E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="K37" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="L36" s="2">
-        <f>SUM(L2:L34)</f>
-        <v>12.135303</v>
+      <c r="L37" s="2">
+        <f>SUM(L2:L36)</f>
+        <v>12.198639</v>
       </c>
     </row>
   </sheetData>
